--- a/uploads/barang.xlsx
+++ b/uploads/barang.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yofandi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eshopper\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>id_barang</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>alamat_suplier</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
   <si>
     <t>nikon</t>
@@ -424,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +439,7 @@
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,16 +467,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -491,21 +488,24 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -517,13 +517,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
